--- a/05_Entregable 3/previo/Diccionarios/MD_17_UPMA_FORMATO DGO UPMA  FLORA 2022, 2023 Y 2024.xlsx
+++ b/05_Entregable 3/previo/Diccionarios/MD_17_UPMA_FORMATO DGO UPMA  FLORA 2022, 2023 Y 2024.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco_F\!!Personal\Mio\1_WCS 2024\wcs\04_Entregable 2\previo\jans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Javi_Angelito\wcs\05_Entregable 3\previo\Diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3463D7CB-92F1-453F-A649-17B4750A733C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadatos generales" sheetId="1" r:id="rId1"/>
-    <sheet name="02_1_general" sheetId="4" r:id="rId2"/>
-    <sheet name="02_1_diccionario" sheetId="3" r:id="rId3"/>
+    <sheet name="17_1_general" sheetId="4" r:id="rId2"/>
+    <sheet name="17_1_diccionario" sheetId="3" r:id="rId3"/>
     <sheet name="Comparativa bases anuales" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="113">
   <si>
     <t>Elemento</t>
   </si>
@@ -140,9 +141,6 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>Nombre de la variable</t>
-  </si>
-  <si>
     <t>Definición</t>
   </si>
   <si>
@@ -425,9 +423,6 @@
     <t>FORMATO DGO UPMA  FLORA 2022, 2023 Y 2024</t>
   </si>
   <si>
-    <t>MADERA 2022, 2023 Y 2024</t>
-  </si>
-  <si>
     <t>A1:U1019</t>
   </si>
   <si>
@@ -441,12 +436,21 @@
   </si>
   <si>
     <t>(?)</t>
+  </si>
+  <si>
+    <t>Nombre actual</t>
+  </si>
+  <si>
+    <t>Nombre propuesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADERA 2022, 2023 Y 2024 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
@@ -906,7 +910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -974,11 +978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,77 +993,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8">
         <v>45689</v>
@@ -1067,10 +1071,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1079,564 +1083,589 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H10" s="11">
+        <v>0.95684967930316001</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="11">
+        <v>-79.630504846571995</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="12">
+        <v>43583</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="G14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.95684967930316001</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="E17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="11">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="11">
-        <v>-79.630504846571995</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="12">
-        <v>43583</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="H19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="H20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="F22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="11">
-        <v>16.309999999999999</v>
-      </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1645,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
@@ -1659,197 +1688,197 @@
   <sheetData>
     <row r="1" spans="1:21" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="P1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" s="27" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="K2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="Q2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="K3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>59</v>
-      </c>
       <c r="N3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="P3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="13" t="s">
+      <c r="T3" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="27" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">

--- a/05_Entregable 3/previo/Diccionarios/MD_17_UPMA_FORMATO DGO UPMA  FLORA 2022, 2023 Y 2024.xlsx
+++ b/05_Entregable 3/previo/Diccionarios/MD_17_UPMA_FORMATO DGO UPMA  FLORA 2022, 2023 Y 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Javi_Angelito\wcs\05_Entregable 3\previo\Diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3463D7CB-92F1-453F-A649-17B4750A733C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE3A075-71D5-46F8-A308-001FAB1E893C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadatos generales" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="132">
   <si>
     <t>Elemento</t>
   </si>
@@ -138,18 +138,12 @@
     <t>Diccionario de variables sobre tráfico de vida silvestre</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Definición</t>
   </si>
   <si>
     <t>Formato de Datos</t>
   </si>
   <si>
-    <t>Unidad de Medida</t>
-  </si>
-  <si>
     <t>Fuente de Datos</t>
   </si>
   <si>
@@ -354,9 +348,6 @@
     <t>Tipo de operativo (ordinario/extraordinario)</t>
   </si>
   <si>
-    <t>[Individuos]</t>
-  </si>
-  <si>
     <t>Niveles administrativos de planificación desarrollados por SNP</t>
   </si>
   <si>
@@ -445,6 +436,72 @@
   </si>
   <si>
     <t xml:space="preserve">MADERA 2022, 2023 Y 2024 </t>
+  </si>
+  <si>
+    <t>zona</t>
+  </si>
+  <si>
+    <t>canton</t>
+  </si>
+  <si>
+    <t>subcircuito</t>
+  </si>
+  <si>
+    <t>longitud</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>subzona</t>
+  </si>
+  <si>
+    <t>ndistrito</t>
+  </si>
+  <si>
+    <t>ncircuito</t>
+  </si>
+  <si>
+    <t>nsub_circuito</t>
+  </si>
+  <si>
+    <t>direccion_rescate</t>
+  </si>
+  <si>
+    <t>latitud</t>
+  </si>
+  <si>
+    <t>fecha_rescate</t>
+  </si>
+  <si>
+    <t>unidad_rescate</t>
+  </si>
+  <si>
+    <t>tipo_operativo</t>
+  </si>
+  <si>
+    <t>hora_inicio</t>
+  </si>
+  <si>
+    <t>hora_final</t>
+  </si>
+  <si>
+    <t>nro_total</t>
+  </si>
+  <si>
+    <t>sub_categoria</t>
+  </si>
+  <si>
+    <t>tipo_1</t>
+  </si>
+  <si>
+    <t>tipo_2</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
@@ -914,7 +971,7 @@
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -952,7 +1009,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>45721</v>
+        <v>45782</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -993,77 +1050,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="8">
         <v>45689</v>
@@ -1071,10 +1128,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1084,11 +1141,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,575 +1154,550 @@
     <col min="2" max="2" width="39.85546875" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="C5" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>109</v>
+        <v>75</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="H9" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="E10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.95684967930316001</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="11">
+        <v>-79.630504846571995</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="12">
+        <v>43583</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="F13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0.95684967930316001</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="11">
-        <v>-79.630504846571995</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="E17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="12">
-        <v>43583</v>
-      </c>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="G17" s="11">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="G18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="11">
-        <v>16.309999999999999</v>
-      </c>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>108</v>
+        <v>75</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>108</v>
+        <v>75</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>108</v>
+        <v>75</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="G21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="G22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H23" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1688,197 +1720,197 @@
   <sheetData>
     <row r="1" spans="1:21" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="N1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="19" t="s">
+      <c r="Q1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="R1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="14" t="s">
+      <c r="T1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="27" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="J2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="19" t="s">
+      <c r="N2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="R2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="14" t="s">
+      <c r="T2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="I3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="K3" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="T3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="14" t="s">
+      <c r="U3" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" s="27" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
